--- a/Texts/Город Сокровищ/Все персонажи/Манки.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Манки.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/um0707.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1101.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1104.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1107.ssb</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,6 +484,21 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Манки.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Манки.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -61,6 +61,33 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/um1107.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1205.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1301.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1304.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1307.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1402.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1405.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1502.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1602.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um1605.ssb</t>
   </si>
 </sst>
 </file>
@@ -424,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +526,51 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Манки.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Манки.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -88,6 +88,54 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/um1605.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um2102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The whole world\'s time is about\nto stop?!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скоро во всём мире остановится\nвремя?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñï âï âòæí íéñå ïòóàîïâéóòÿ\nâñåíÿ?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The world\'s going to be ruined if\nsomething\'s not done, is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But what can I do to stop it?\nI can only cheer you on while lolling in the\nHot Spring…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But go do it![K] Save the world!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um2402.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/um2502.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Миру придёт конец если ничего\nне сделать, так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но что я могу сделать, чтобы\nэтого не случилось? Только болеть за вас,\nотмокая в Горячих Источниках...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, вперёд![K] Спасите мир!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íéñô ðñéäæó ëïîåø åòìé îéœåãï\nîå òäåìàóû, óàë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï œóï ÿ íïãô òäåìàóû, œóïáú\nüóïãï îå òìôœéìïòû? Óïìûëï áïìåóû èà âàò,\nïóíïëàÿ â Ãïñÿœéö Éòóïœîéëàö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, âðåñæä![K] Òðàòéóå íéñ!</t>
   </si>
 </sst>
 </file>
@@ -118,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -150,11 +198,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -169,6 +237,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,6 +651,80 @@
         <v>22</v>
       </c>
     </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8">
+        <v>63</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Манки.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Манки.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Îï, âðåñæä![K] Òðàòéóå íéñ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oooh, yeah... Soaking in the Hot\nSpring is so relaxing…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us0102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ооо, да... Как хорошо купаться в\nГорячих Источниках...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïï, äà... Ëàë öïñïšï ëôðàóûòÿ â\nÃïñÿœéö Éòóïœîéëàö…</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us3102.ssb</t>
   </si>
 </sst>
 </file>
@@ -531,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,17 +727,40 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6">
         <v>44</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Манки.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Манки.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>SCRIPT/P02P01A/us3102.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us0202.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us0402.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us2002.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us2005.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P02P01A/us2008.ssb</t>
   </si>
 </sst>
 </file>
@@ -546,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -763,6 +778,31 @@
         <v>43</v>
       </c>
     </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
